--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-09_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-09_beg.xlsx
@@ -564,7 +564,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] I’m not going to tell you, “That's all the more reason I should head in there.” ...All I'll say is, if there’s something I can do and something needs to be done, then I’ll do it, and I’ll see it through.
+    <t xml:space="preserve">[name="Amiya"] I’m not going to tell you, 'That's all the more reason I should head in there.' ...All I'll say is, if there’s something I can do and something needs to be done, then I’ll do it, and I’ll see it through.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-09_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-09_beg.xlsx
@@ -448,11 +448,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"] No. There’s been a lot of new blood in Reunion ever since we left the tundras. I haven’t ever bothered to get to know any of them. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"] I’m getting the kind of feeling they’re not...
+    <t xml:space="preserve">[name="Shieldguard"] No. There's been a lot of new blood in Reunion ever since we left the tundras. I haven't ever bothered to get to know any of them. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] I'm getting the kind of feeling they're not...
 </t>
   </si>
   <si>
@@ -476,7 +476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"] Fall back!! It’s the Ursus! 
+    <t xml:space="preserve">[name="Shieldguard"] Fall back!! It's the Ursus! 
 </t>
   </si>
   <si>
@@ -484,19 +484,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"] What, you think I’m some kind of traitor?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shieldguard"] You think we’re despicable for turning our backs on Ursus for some lowly Infected?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shieldguard"] We’re fighting for their worthless lives, we’re behind the times, and we’ve got no honor, so we should get our names taken off the registers and erased from history?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shieldguard"] Maybe you have a husband or a wife, maybe you don’t want to be here, but you still got sent by the higher-ups. You’re just some puppetmaster’s pawn, throwing away your life to do someone else’s bidding...
+    <t xml:space="preserve">[name="Shieldguard"] What, you think I'm some kind of traitor?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] You think we're despicable for turning our backs on Ursus for some lowly Infected?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] We're fighting for their worthless lives, we're behind the times, and we've got no honor, so we should get our names taken off the registers and erased from history?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Maybe you have a husband or a wife, maybe you don't want to be here, but you still got sent by the higher-ups. You're just some puppetmaster's pawn, throwing away your life to do someone else's bidding...
 </t>
   </si>
   <si>
@@ -516,7 +516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"] Careful! The Ursus troops are wearing Reunion’s—
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] Careful! The Ursus troops are wearing Reunion's—
 </t>
   </si>
   <si>
@@ -524,7 +524,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] You mustn’t say that...!
+    <t xml:space="preserve">[name="Amiya"] You mustn't say that...!
 </t>
   </si>
   <si>
@@ -532,7 +532,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] The combatants on both sides will start doubting everyone around them if you say that... The more chaotic the situation is, the more of an advantage they’ll have!
+    <t xml:space="preserve">[name="Amiya"] The combatants on both sides will start doubting everyone around them if you say that... The more chaotic the situation is, the more of an advantage they'll have!
 </t>
   </si>
   <si>
@@ -544,15 +544,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"] We don’t have much time left, and we have no idea when Reunion will come barging their way to the control tower... It’ll only get harder to organize an attack once that happens!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"] Not all of us need to fight this battle. We’re up against Talulah. A small, disorganized squad isn’t going to do us any good. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"] I’ll go.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] We don't have much time left, and we have no idea when Reunion will come barging their way to the control tower... It'll only get harder to organize an attack once that happens!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Not all of us need to fight this battle. We're up against Talulah. A small, disorganized squad isn't going to do us any good. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] I'll go.
 </t>
   </si>
   <si>
@@ -560,15 +560,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"] Amiya... Not again... You’re Rhodes Island’s leader!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"] I’m not going to tell you, 'That's all the more reason I should head in there.' ...All I'll say is, if there’s something I can do and something needs to be done, then I’ll do it, and I’ll see it through.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"] And who’s supposed to cover you?
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] Amiya... Not again... You're Rhodes Island's leader!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] I'm not going to tell you, 'That's all the more reason I should head in there.' ...All I'll say is, if there's something I can do and something needs to be done, then I'll do it, and I'll see it through.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] And who's supposed to cover you?
 </t>
   </si>
   <si>
@@ -576,7 +576,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"] Shieldguards, and that includes anyone who’s injured. Let’s do this. We’ll hold the line here.
+    <t xml:space="preserve">[name="Rosmontis"] Shieldguards, and that includes anyone who's injured. Let's do this. We'll hold the line here.
 </t>
   </si>
   <si>
@@ -584,11 +584,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"] They’re rounding up all the special Infected and driving them out. So ruthless. They aren’t showing even the tiniest bit of mercy...  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"] I’ll crush their position and ambush point.
+    <t xml:space="preserve">[name="Rosmontis"] They're rounding up all the special Infected and driving them out. So ruthless. They aren't showing even the tiniest bit of mercy...  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I'll crush their position and ambush point.
 </t>
   </si>
   <si>
@@ -612,15 +612,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"] No, I’m not an outsider.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"] We’re a team now. We’ll stop this city together! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"] That’s why I’m not an outsider!
+    <t xml:space="preserve">[name="Rosmontis"] No, I'm not an outsider.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] We're a team now. We'll stop this city together! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] That's why I'm not an outsider!
 </t>
   </si>
   <si>
